--- a/Dummy.xlsx
+++ b/Dummy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkfaa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B4F3E6A-D3B9-4351-971D-34659268682F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41E8E78-DADA-4261-8733-23BE341E517F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{326C7620-9703-474C-AEFD-32E6F1AF84E8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="83">
   <si>
     <t>Phase</t>
   </si>
@@ -497,6 +497,371 @@
   </si>
   <si>
     <t>UPDATE CLAIMS_MANAGER SET STATUS = 'REJECTED' WHERE CLAIM_ID = :claim_id; UPDATE CLAIMS SET STATUS = 'REJECTED' WHERE CLAIM_ID = :claim_id; INSERT INTO CLAIMS_MANAGER_AUDIT (CLAIM_ID, OLD_STATUS, NEW_STATUS, CHANGED_BY, CHANGED_AT) VALUES (:claim_id, 'UNDER_INVESTIGATION', 'REJECTED', :user, CURRENT_TIMESTAMP);</t>
+  </si>
+  <si>
+    <t>SP Call Example</t>
+  </si>
+  <si>
+    <t>Initial Intake</t>
+  </si>
+  <si>
+    <t>➔ Insert into CLAIMS ➔ Insert into CLAIMS_QUEUE as OUTSTANDING ➔ Log in CLAIMS_QUEUE_AUDIT</t>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO CLAIMS (CLAIM_ID, STATUS, CREATED_AT) VALUES (:claim_id, 'OUTSTANDING')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>INSERT INTO CLAIMS_QUEUE (...)</t>
+    </r>
+  </si>
+  <si>
+    <t>CALL proc_ingest_claim('CLAIM001', 'api_user', 'initial load')</t>
+  </si>
+  <si>
+    <t>CLAIMS_QUEUE</t>
+  </si>
+  <si>
+    <t>➔ Remove from CLAIMS_QUEUE ➔ Insert into CLAIMS_MANAGER (NEW) ➔ Update CLAIMS to ACCEPTED ➔ Log in CLAIMS_QUEUE_AUDIT</t>
+  </si>
+  <si>
+    <r>
+      <t>DELETE FROM CLAIMS_QUEUE WHERE CLAIM_ID = :claim_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>INSERT INTO CLAIMS_MANAGER (...)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>UPDATE CLAIMS SET STATUS = 'ACCEPTED'</t>
+    </r>
+  </si>
+  <si>
+    <t>CALL proc_accept_claims('''CLAIM001'', ''CLAIM002''', 'api_user', 'bulk accept')</t>
+  </si>
+  <si>
+    <t>➔ Remove from CLAIMS_QUEUE ➔ Update CLAIMS to REJECTED ➔ Log in CLAIMS_QUEUE_AUDIT</t>
+  </si>
+  <si>
+    <r>
+      <t>DELETE FROM CLAIMS_QUEUE WHERE CLAIM_ID = :claim_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>UPDATE CLAIMS SET STATUS = 'REJECTED'</t>
+    </r>
+  </si>
+  <si>
+    <t>CALL proc_reject_claims('''CLAIM001'', ''CLAIM002''', 'api_user', 'bulk reject')</t>
+  </si>
+  <si>
+    <t>➔ Insert back into CLAIMS_QUEUE as OUTSTANDING ➔ Update CLAIMS to OUTSTANDING ➔ Log in CLAIMS_QUEUE_AUDIT</t>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO CLAIMS_QUEUE (CLAIM_ID, STATUS, REINSTATED_AT) VALUES (:claim_id, 'OUTSTANDING')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>UPDATE CLAIMS SET STATUS = 'OUTSTANDING'</t>
+    </r>
+  </si>
+  <si>
+    <t>CALL proc_reinstate_claims('''CLAIM003''', 'api_user', 'reinstate rejected')</t>
+  </si>
+  <si>
+    <t>CLAIMS_MANAGER</t>
+  </si>
+  <si>
+    <t>➔ Update CLAIMS_MANAGER to UNDER_INVESTIGATION ➔ Log in CLAIMS_MANAGER_AUDIT</t>
+  </si>
+  <si>
+    <t>UPDATE CLAIMS_MANAGER SET STATUS = 'UNDER_INVESTIGATION' WHERE CLAIM_ID = :claim_id</t>
+  </si>
+  <si>
+    <t>CALL proc_start_investigation('''CLAIM004''', 'investigator_user', 'investigation opened')</t>
+  </si>
+  <si>
+    <t>➔ Update CLAIMS_MANAGER to CLOSED ➔ Update CLAIMS to CLOSED ➔ Log in CLAIMS_MANAGER_AUDIT</t>
+  </si>
+  <si>
+    <r>
+      <t>UPDATE CLAIMS_MANAGER SET STATUS = 'CLOSED' WHERE CLAIM_ID = :claim_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>UPDATE CLAIMS SET STATUS = 'CLOSED'</t>
+    </r>
+  </si>
+  <si>
+    <t>CALL proc_close_claims('''CLAIM004''', 'investigator_user', 'investigation approved')</t>
+  </si>
+  <si>
+    <t>➔ Update CLAIMS_MANAGER to REJECTED ➔ Update CLAIMS to REJECTED ➔ Log in CLAIMS_MANAGER_AUDIT</t>
+  </si>
+  <si>
+    <r>
+      <t>UPDATE CLAIMS_MANAGER SET STATUS = 'REJECTED' WHERE CLAIM_ID = :claim_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>UPDATE CLAIMS SET STATUS = 'REJECTED'</t>
+    </r>
+  </si>
+  <si>
+    <t>CALL proc_manager_reject_claims('''CLAIM005''', 'investigator_user', 'investigation rejected')</t>
+  </si>
+  <si>
+    <t>Any Phase</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Cancelation (by user request)</t>
+  </si>
+  <si>
+    <t>➔ Remove from CLAIMS_QUEUE or CLAIMS_MANAGER ➔ Update CLAIMS to CANCELED ➔ Log in AUDIT</t>
+  </si>
+  <si>
+    <r>
+      <t>DELETE FROM CLAIMS_QUEUE OR CLAIMS_MANAGER WHERE CLAIM_ID = :claim_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>UPDATE CLAIMS SET STATUS = 'CANCELED'</t>
+    </r>
+  </si>
+  <si>
+    <t>CALL proc_cancel_claims('''CLAIM006''', 'user_requestor', 'cancel requested')</t>
+  </si>
+  <si>
+    <t>CLOSED</t>
+  </si>
+  <si>
+    <t>Reopen closed claim (appeal)</t>
+  </si>
+  <si>
+    <t>➔ Update CLAIMS_MANAGER to UNDER_INVESTIGATION ➔ Update CLAIMS to UNDER_INVESTIGATION ➔ Log in CLAIMS_MANAGER_AUDIT</t>
+  </si>
+  <si>
+    <r>
+      <t>UPDATE CLAIMS_MANAGER SET STATUS = 'UNDER_INVESTIGATION' WHERE CLAIM_ID = :claim_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>UPDATE CLAIMS SET STATUS = 'UNDER_INVESTIGATION'</t>
+    </r>
+  </si>
+  <si>
+    <t>CALL proc_reopen_claims('''CLAIM007''', 'appeal_user', 'reopened on appeal')</t>
+  </si>
+  <si>
+    <t>Bulk admin action (admin batch)</t>
+  </si>
+  <si>
+    <t>➔ Apply bulk update or delete ➔ Update CLAIMS or QUEUE or MANAGER ➔ Log bulk change in AUDIT table</t>
+  </si>
+  <si>
+    <r>
+      <t>UPDATE OR DELETE ... WHERE CLAIM_ID IN (...)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>INSERT INTO AUDIT TABLE</t>
+    </r>
+  </si>
+  <si>
+    <t>CALL proc_admin_bulk_action('BULK_ACTION_TYPE', '''CLAIM008'', ''CLAIM009''', 'admin_user', 'bulk admin op')</t>
+  </si>
+  <si>
+    <t>Audit-only correction</t>
+  </si>
+  <si>
+    <t>➔ Insert correction record into AUDIT tables only (no status change)</t>
+  </si>
+  <si>
+    <t>INSERT INTO CLAIMS_QUEUE_AUDIT OR CLAIMS_MANAGER_AUDIT (...)</t>
+  </si>
+  <si>
+    <t>CALL proc_audit_only_entry('''CLAIM010''', 'audit_user', 'manual correction entry')</t>
+  </si>
+  <si>
+    <t>OUTSTANDING or UNDER_INVESTIGATION</t>
+  </si>
+  <si>
+    <t>Timed auto-close or auto-reject (timeout)</t>
+  </si>
+  <si>
+    <t>➔ Check claim age ➔ Update CLAIMS or CLAIMS_MANAGER ➔ Log in appropriate AUDIT table</t>
+  </si>
+  <si>
+    <r>
+      <t>UPDATE CLAIMS SET STATUS = 'REJECTED' WHERE STATUS = 'OUTSTANDING' AND AGE &gt; :threshold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>UPDATE CLAIMS_MANAGER SET STATUS = 'CLOSED' WHERE STATUS = 'UNDER_INVESTIGATION' AND AGE &gt; :threshold</t>
+    </r>
+  </si>
+  <si>
+    <t>CALL proc_auto_close_claims(:threshold_days, 'system_scheduler', 'timed auto-close/reject')</t>
   </si>
 </sst>
 </file>
@@ -870,15 +1235,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5648C413-F59D-4FEA-BF26-70CD668DFD2A}">
-  <dimension ref="B2:F9"/>
+  <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="123.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:7">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -895,7 +1267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:7">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -912,7 +1284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:7">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -929,7 +1301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:7">
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -946,7 +1318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:7">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -963,7 +1335,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:7">
       <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
@@ -980,7 +1352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:7">
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
@@ -997,7 +1369,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:7">
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1012,6 +1384,266 @@
       </c>
       <c r="F9" s="3" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
